--- a/opoe_data/Merged.xlsx
+++ b/opoe_data/Merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iyengarswa\Dropbox\LEDE\Course\Project\Pitch 4\OPOE\opoe_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DDD25-A608-45D0-A0AE-59854015BFAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF98E7CD-CF69-4421-8977-0A19F3C2A69F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="855" windowWidth="23745" windowHeight="15435" activeTab="2" xr2:uid="{128614BC-3153-4D30-A95B-03F993C0486F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16852" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16853" uniqueCount="1967">
   <si>
     <t>Ingredient</t>
   </si>
@@ -5927,10 +5927,13 @@
     <t>totalproducts_list</t>
   </si>
   <si>
-    <t>discrepancy</t>
-  </si>
-  <si>
-    <t>additional products removed without explanation</t>
+    <t>change in list</t>
+  </si>
+  <si>
+    <t>previousyears_countremoved</t>
+  </si>
+  <si>
+    <t>discrepancies</t>
   </si>
 </sst>
 </file>
@@ -6003,67 +6006,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6123,7 +6066,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC3C51E5-D251-4B13-817A-9616DD0934D9}" name="Table24" displayName="Table24" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC3C51E5-D251-4B13-817A-9616DD0934D9}" name="Table24" displayName="Table24" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:E1048576" xr:uid="{FD5B3066-DA44-44A9-A8E6-D22BBED3E7C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B122">
     <sortCondition ref="A1:A122"/>
@@ -78080,10 +78023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DEA25-D428-40B6-98FE-DBAB0D4C5BA2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78091,11 +78034,12 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1961</v>
       </c>
@@ -78105,14 +78049,17 @@
       <c r="C1" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -78125,7 +78072,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -78138,11 +78085,15 @@
         <v>538</v>
       </c>
       <c r="D3" s="2">
-        <f>(C4-B4)</f>
+        <f>C4-B4</f>
         <v>533</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f>C3-C2</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1142</v>
       </c>
@@ -78155,15 +78106,19 @@
         <v>544</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D8" si="0">(C5-B5)</f>
+        <f t="shared" ref="D4:D9" si="0">C5-B5</f>
         <v>512</v>
       </c>
       <c r="E4">
         <f>(C4-B4)-C3</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f>C4-C3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1143</v>
       </c>
@@ -78183,8 +78138,12 @@
         <f>(C5-B5)-C4</f>
         <v>-32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f>C5-C4</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1746</v>
       </c>
@@ -78204,8 +78163,12 @@
         <f>(C6-B6)-C5</f>
         <v>-32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f>C6-C5</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1747</v>
       </c>
@@ -78225,8 +78188,12 @@
         <f>(C7-B7)-C6</f>
         <v>-28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f>C7-C6</f>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1877</v>
       </c>
@@ -78246,8 +78213,12 @@
         <f>(C8-B8)-C7</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f>C8-C7</f>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1878</v>
       </c>
@@ -78259,12 +78230,21 @@
         <f>COUNTIF(Table24[[#All],[Listing]], appendix_analysis!A9)</f>
         <v>442</v>
       </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E9">
         <f>(C9-B9)-C8</f>
         <v>-8</v>
       </c>
+      <c r="F9" s="2">
+        <f>C9-C8</f>
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>